--- a/PCB_ovladaci_karta/Ovladaci_karta/Project Outputs for Ovladaci_karta/BOM/Copy of Bill of Materials-Ovladaci_karta.xlsx
+++ b/PCB_ovladaci_karta/Ovladaci_karta/Project Outputs for Ovladaci_karta/BOM/Copy of Bill of Materials-Ovladaci_karta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip\Desktop\diplomka\PCB_ovladaci_karta\Ovladaci_karta\Project Outputs for Ovladaci_karta\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CF74490-8BE9-438C-B378-14CB7AB03B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{863C1295-3D4B-48BF-AF05-CE5260A681E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27555" yWindow="1350" windowWidth="25350" windowHeight="26310" xr2:uid="{BBEA3783-B07F-4CDE-990F-69C8BF6DE8F8}"/>
+    <workbookView xWindow="2955" yWindow="4980" windowWidth="45270" windowHeight="26310" xr2:uid="{40C6E08A-A636-47C4-A554-CA2C57C8EF86}"/>
   </bookViews>
   <sheets>
     <sheet name="Copy of Bill of Materials-Ovlad" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="293">
   <si>
     <t>Designator</t>
   </si>
@@ -72,7 +72,7 @@
     <t>Manufacturer Part Number 1</t>
   </si>
   <si>
-    <t>R47, R48, R49, R50</t>
+    <t>R46, R47, R48, R49, R50, R52</t>
   </si>
   <si>
     <t>ERJ-3GEY0R00V</t>
@@ -249,7 +249,7 @@
     <t>https://cz.mouser.com/ProductDetail/Amphenol-Commercial-Products/G821EU210AAL10Y?qs=f9yNj16SXrKgfgt6Mg6Piw%3D%3D</t>
   </si>
   <si>
-    <t>Amphenol</t>
+    <t>Amphenol ICC / FCI</t>
   </si>
   <si>
     <t>C16, C17, C37, C38</t>
@@ -282,7 +282,7 @@
     <t>https://cz.mouser.com/ProductDetail/TE-Connectivity/5-146280-3?qs=bwpFY26eRVf7xnwkMZzVxA%3D%3D</t>
   </si>
   <si>
-    <t>C3</t>
+    <t>C3, C42</t>
   </si>
   <si>
     <t>C1608X5R1V475K080AC</t>
@@ -462,7 +462,7 @@
     <t>https://cz.mouser.com/ProductDetail/Panasonic/ERJ-2RKF5102X?qs=YMBIwoNQYdXcamr3JeKUBw%3D%3D</t>
   </si>
   <si>
-    <t>C4, C5, C6, C7, C8, C9, C10, C11, C12, C13, C14, C15, C18, C19, C20, C21, C22, C25, C27, C29, C30, C31, C32, C34, C35, C36</t>
+    <t>C4, C5, C6, C7, C8, C9, C10, C11, C12, C13, C14, C15, C18, C19, C20, C21, C22, C25, C27, C29, C30, C31, C32, C34, C35, C36, C40, C41, C43</t>
   </si>
   <si>
     <t>C0402C104K3RACTU</t>
@@ -1283,7 +1283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67BCE1C-83CD-441E-A3B5-5E99872A6808}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C0EE83-760B-4BF4-B7E9-2ADA19BA2E0F}">
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1369,16 +1369,16 @@
         <v>20</v>
       </c>
       <c r="H2" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="1">
-        <v>0.10548</v>
+        <v>0.15820999999999999</v>
       </c>
       <c r="K2" s="1">
-        <v>11207457</v>
+        <v>11148317</v>
       </c>
       <c r="L2" s="1">
         <v>2.6370000000000001E-2</v>
@@ -1422,7 +1422,7 @@
         <v>1.17</v>
       </c>
       <c r="K3" s="1">
-        <v>204462</v>
+        <v>203959</v>
       </c>
       <c r="L3" s="1">
         <v>5.5559999999999998E-2</v>
@@ -1466,7 +1466,7 @@
         <v>8.1930000000000003E-2</v>
       </c>
       <c r="K4" s="1">
-        <v>792174</v>
+        <v>791800</v>
       </c>
       <c r="L4" s="1">
         <v>2.7310000000000001E-2</v>
@@ -1510,7 +1510,7 @@
         <v>0.48970999999999998</v>
       </c>
       <c r="K5" s="1">
-        <v>57225</v>
+        <v>57220</v>
       </c>
       <c r="L5" s="1">
         <v>0.24485999999999999</v>
@@ -1554,7 +1554,7 @@
         <v>0.53680000000000005</v>
       </c>
       <c r="K6" s="1">
-        <v>421479</v>
+        <v>416221</v>
       </c>
       <c r="L6" s="1">
         <v>0.17893000000000001</v>
@@ -1634,7 +1634,7 @@
         <v>4.1399999999999997</v>
       </c>
       <c r="K8" s="1">
-        <v>28624</v>
+        <v>47952</v>
       </c>
       <c r="L8" s="1">
         <v>0.51795999999999998</v>
@@ -1810,7 +1810,7 @@
         <v>3.11</v>
       </c>
       <c r="K12" s="1">
-        <v>53771</v>
+        <v>53743</v>
       </c>
       <c r="L12" s="1">
         <v>0.62156</v>
@@ -1845,16 +1845,16 @@
         <v>88</v>
       </c>
       <c r="H13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J13" s="1">
-        <v>0.39554</v>
+        <v>0.79107000000000005</v>
       </c>
       <c r="K13" s="1">
-        <v>290819</v>
+        <v>290539</v>
       </c>
       <c r="L13" s="1">
         <v>0.39554</v>
@@ -1942,7 +1942,7 @@
         <v>0.94174999999999998</v>
       </c>
       <c r="K15" s="1">
-        <v>2722</v>
+        <v>2693</v>
       </c>
       <c r="L15" s="1">
         <v>0.94174999999999998</v>
@@ -1986,7 +1986,7 @@
         <v>0.16103999999999999</v>
       </c>
       <c r="K16" s="1">
-        <v>41784</v>
+        <v>41684</v>
       </c>
       <c r="L16" s="1">
         <v>1.789E-2</v>
@@ -2074,7 +2074,7 @@
         <v>0.19777</v>
       </c>
       <c r="K18" s="1">
-        <v>18837</v>
+        <v>18737</v>
       </c>
       <c r="L18" s="1">
         <v>0.19777</v>
@@ -2162,7 +2162,7 @@
         <v>0.12808</v>
       </c>
       <c r="K20" s="1">
-        <v>2815873</v>
+        <v>2803393</v>
       </c>
       <c r="L20" s="1">
         <v>3.202E-2</v>
@@ -2206,7 +2206,7 @@
         <v>0.92237000000000002</v>
       </c>
       <c r="K21" s="1">
-        <v>57225</v>
+        <v>57220</v>
       </c>
       <c r="L21" s="1">
         <v>0.23058999999999999</v>
@@ -2282,7 +2282,7 @@
         <v>0.18834999999999999</v>
       </c>
       <c r="K23" s="1">
-        <v>339083</v>
+        <v>337839</v>
       </c>
       <c r="L23" s="1">
         <v>9.418E-2</v>
@@ -2317,16 +2317,16 @@
         <v>148</v>
       </c>
       <c r="H24" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J24" s="1">
-        <v>3.97</v>
+        <v>4.42</v>
       </c>
       <c r="K24" s="1">
-        <v>703275</v>
+        <v>692285</v>
       </c>
       <c r="L24" s="1">
         <v>0.15256</v>
@@ -2538,7 +2538,7 @@
         <v>1.51</v>
       </c>
       <c r="K29" s="1">
-        <v>40382</v>
+        <v>40342</v>
       </c>
       <c r="L29" s="1">
         <v>1.51</v>
@@ -2626,7 +2626,7 @@
         <v>0.19777</v>
       </c>
       <c r="K31" s="1">
-        <v>77590</v>
+        <v>76950</v>
       </c>
       <c r="L31" s="1">
         <v>0.19777</v>
@@ -2670,7 +2670,7 @@
         <v>0.95116999999999996</v>
       </c>
       <c r="K32" s="1">
-        <v>123892</v>
+        <v>120238</v>
       </c>
       <c r="L32" s="1">
         <v>0.95116999999999996</v>
@@ -2755,13 +2755,13 @@
         <v>21</v>
       </c>
       <c r="J34" s="1">
-        <v>0.35787000000000002</v>
+        <v>0.33903</v>
       </c>
       <c r="K34" s="1">
-        <v>12604</v>
+        <v>12504</v>
       </c>
       <c r="L34" s="1">
-        <v>0.35787000000000002</v>
+        <v>0.33903</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>205</v>
@@ -2802,7 +2802,7 @@
         <v>1.92</v>
       </c>
       <c r="K35" s="1">
-        <v>320027</v>
+        <v>580222</v>
       </c>
       <c r="L35" s="1">
         <v>0.48028999999999999</v>
@@ -2839,10 +2839,18 @@
       <c r="H36" s="1">
         <v>1</v>
       </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
+      <c r="I36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="1">
+        <v>2.27</v>
+      </c>
+      <c r="K36" s="1">
+        <v>15177</v>
+      </c>
+      <c r="L36" s="1">
+        <v>2.27</v>
+      </c>
       <c r="M36" s="2" t="s">
         <v>218</v>
       </c>
@@ -2879,13 +2887,13 @@
         <v>21</v>
       </c>
       <c r="J37" s="1">
-        <v>0.63097000000000003</v>
+        <v>0.61214000000000002</v>
       </c>
       <c r="K37" s="1">
-        <v>129828</v>
+        <v>129190</v>
       </c>
       <c r="L37" s="1">
-        <v>0.63097000000000003</v>
+        <v>0.61214000000000002</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>225</v>
@@ -2923,13 +2931,13 @@
         <v>21</v>
       </c>
       <c r="J38" s="1">
-        <v>0.43320999999999998</v>
+        <v>0.41437000000000002</v>
       </c>
       <c r="K38" s="1">
-        <v>77280</v>
+        <v>77218</v>
       </c>
       <c r="L38" s="1">
-        <v>0.43320999999999998</v>
+        <v>0.41437000000000002</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>225</v>
@@ -2970,7 +2978,7 @@
         <v>1.73</v>
       </c>
       <c r="K39" s="1">
-        <v>2328</v>
+        <v>2318</v>
       </c>
       <c r="L39" s="1">
         <v>0.86641000000000001</v>
@@ -3014,7 +3022,7 @@
         <v>2.34</v>
       </c>
       <c r="K40" s="1">
-        <v>144879</v>
+        <v>142879</v>
       </c>
       <c r="L40" s="1">
         <v>0.25991999999999998</v>
@@ -3102,7 +3110,7 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="K42" s="1">
-        <v>222532</v>
+        <v>222432</v>
       </c>
       <c r="L42" s="1">
         <v>0.19023000000000001</v>
@@ -3182,7 +3190,7 @@
         <v>1.75</v>
       </c>
       <c r="K44" s="1">
-        <v>14352</v>
+        <v>14347</v>
       </c>
       <c r="L44" s="1">
         <v>0.58389000000000002</v>
@@ -3226,7 +3234,7 @@
         <v>2.67</v>
       </c>
       <c r="K45" s="1">
-        <v>21258</v>
+        <v>20103</v>
       </c>
       <c r="L45" s="1">
         <v>2.67</v>
@@ -3306,7 +3314,7 @@
         <v>0.47088000000000002</v>
       </c>
       <c r="K47" s="1">
-        <v>6586</v>
+        <v>1484</v>
       </c>
       <c r="L47" s="1">
         <v>0.47088000000000002</v>
@@ -3350,7 +3358,7 @@
         <v>272.19</v>
       </c>
       <c r="K48" s="1">
-        <v>177263</v>
+        <v>177053</v>
       </c>
       <c r="L48" s="1">
         <v>9.07</v>

--- a/PCB_ovladaci_karta/Ovladaci_karta/Project Outputs for Ovladaci_karta/BOM/Copy of Bill of Materials-Ovladaci_karta.xlsx
+++ b/PCB_ovladaci_karta/Ovladaci_karta/Project Outputs for Ovladaci_karta/BOM/Copy of Bill of Materials-Ovladaci_karta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip\Desktop\diplomka\PCB_ovladaci_karta\Ovladaci_karta\Project Outputs for Ovladaci_karta\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{863C1295-3D4B-48BF-AF05-CE5260A681E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B06163EA-5CD2-47A7-9E44-79F4B993C5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="4980" windowWidth="45270" windowHeight="26310" xr2:uid="{40C6E08A-A636-47C4-A554-CA2C57C8EF86}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="45270" windowHeight="26310" xr2:uid="{E0ABDCD2-0D16-4FC2-94A2-37200ECE597F}"/>
   </bookViews>
   <sheets>
     <sheet name="Copy of Bill of Materials-Ovlad" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="293">
   <si>
     <t>Designator</t>
   </si>
@@ -510,16 +510,16 @@
     <t>R43</t>
   </si>
   <si>
-    <t>ERJ-S02F2203X</t>
-  </si>
-  <si>
-    <t>220k</t>
-  </si>
-  <si>
-    <t>Resistor - 0402 -  220k - 1% - 100mW</t>
-  </si>
-  <si>
-    <t>https://cz.mouser.com/ProductDetail/TE-Connectivity-Holsworthy/CRGCQ0402F220K?qs=wUXugUrL1qxgaPkTarsp4Q%3D%3D</t>
+    <t>ERJ2RKD2323X</t>
+  </si>
+  <si>
+    <t>232k</t>
+  </si>
+  <si>
+    <t>Resistor - 0402 -  232k - 0.5% - 62mW</t>
+  </si>
+  <si>
+    <t>https://cz.mouser.com/ProductDetail/Panasonic/ERJ2RKD2323X?qs=YCa%2FAAYMW02KvIWpqTK%252Bgg%3D%3D</t>
   </si>
   <si>
     <t>R5, R15_U_PORT_SINGLE1, R15_U_PORT_SINGLE2, R15_U_PORT_SINGLE3, R16_U_PORT_SINGLE1, R16_U_PORT_SINGLE2, R16_U_PORT_SINGLE3, R17_U_PORT_SINGLE1, R17_U_PORT_SINGLE2, R17_U_PORT_SINGLE3, R23, R24_U_PORT_SINGLE1, R24_U_PORT_SINGLE2, R24_U_PORT_SINGLE3, R26_U_PORT_SINGLE1, R26_U_PORT_SINGLE2, R26_U_PORT_SINGLE3, R37_U_PORT_SINGLE1, R37_U_PORT_SINGLE2, R37_U_PORT_SINGLE3, R39_U_PORT_SINGLE1, R39_U_PORT_SINGLE2, R39_U_PORT_SINGLE3, R40_U_PORT_SINGLE1, R40_U_PORT_SINGLE2, R40_U_PORT_SINGLE3</t>
@@ -1283,7 +1283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C0EE83-760B-4BF4-B7E9-2ADA19BA2E0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8037A38-9308-4FC7-BB8E-8F85E2D1ED56}">
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2451,10 +2451,18 @@
       <c r="H27" s="1">
         <v>1</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="I27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.12243</v>
+      </c>
+      <c r="K27" s="1">
+        <v>21020</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.12243</v>
+      </c>
       <c r="M27" s="2" t="s">
         <v>22</v>
       </c>
